--- a/09/DBSG_cea_09. 3-tier configuration.xlsx
+++ b/09/DBSG_cea_09. 3-tier configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2332023C-901D-4B81-A4B2-708AD8C96174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B162E-94AC-4353-A2F2-6A401216FD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SecurityGroupRule_List (2)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Outbound</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>192.168.0.12/24</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>80, 443</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1186,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1290,8 +1294,8 @@
       <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="17">
-        <v>80443</v>
+      <c r="E4" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>

--- a/09/DBSG_cea_09. 3-tier configuration.xlsx
+++ b/09/DBSG_cea_09. 3-tier configuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤재\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B162E-94AC-4353-A2F2-6A401216FD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126A5D78-BE89-4FC7-8236-FFBDD4417F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SecurityGroupRule_List (2)" sheetId="1" r:id="rId1"/>
@@ -125,11 +125,11 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.0.12/24</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>80, 443</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.12.0/24</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1295,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1329,7 +1329,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
